--- a/meshdata.xlsx
+++ b/meshdata.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,132 +436,48 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APPLICATION</t>
+          <t>JOBNAME</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SFR-MX-DATIO</t>
+          <t>MSFRCP0014</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CMDLINE</t>
+          <t>JOBNAME</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>/opt/datio/sentry-mx/dataproc_sentry.py %%SENTRY_JOB %%SENTRY_OPT '%%SENTRY_PARM'</t>
+          <t>MLMACP0017</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CREATION_DATE</t>
+          <t>JOBNAME</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20181016</t>
+          <t>MSFRCP0019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CRITICAL</t>
+          <t>-----</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>DESCRIPTION</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Ingesta MASTER TFR315</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>JOBNAME</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>MSFRCP0014</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>MEMLIB</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>datio</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MEMNAME</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>MSFRCP0014</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NODEID</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>MX-SENTRY-00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>RUN_AS</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>sentry</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>SUB_APPLICATION</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>REG-DATIO-CCR</t>
+          <t>-----</t>
         </is>
       </c>
     </row>
